--- a/word_IPA_wikcionario_dipht_left_palatal.xlsx
+++ b/word_IPA_wikcionario_dipht_left_palatal.xlsx
@@ -23,13 +23,13 @@
     <t>word</t>
   </si>
   <si>
-    <t>['ˈmwi.ɲu']</t>
+    <t>['ˈmu.i.ɲu']</t>
   </si>
   <si>
     <t>['ẽ.bɐ.i.ˈɲaɾ']</t>
   </si>
   <si>
-    <t>['Rɐ.ˈi.ɲɐ']</t>
+    <t>['ʀɐ.ˈi.ɲɐ']</t>
   </si>
   <si>
     <t>['tɐ.ˈi.ɲɐ']</t>
@@ -44,7 +44,7 @@
     <t>['ɡɾɐ.ˈi.ɲɐ']</t>
   </si>
   <si>
-    <t>['Rɨ.ˈmwi.ɲu']</t>
+    <t>['ʀɨ.ˈmu.i.ɲu']</t>
   </si>
   <si>
     <t>moinho</t>
